--- a/docs/部品選定・発注/購入申請_試作/購入申請(20210608).xlsx
+++ b/docs/部品選定・発注/購入申請_試作/購入申請(20210608).xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10510"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\プロジェクト演習4\docs\部品選定・発注\購入申請_試作\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5DB198B0-1A58-45D6-B358-7FE52C7FAC11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="32" documentId="8_{5DB198B0-1A58-45D6-B358-7FE52C7FAC11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EFE3B0A6-C3EC-EB4F-9050-6D29E997199B}"/>
   <bookViews>
-    <workbookView xWindow="-23160" yWindow="-16320" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23160" yWindow="-16320" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="購入リスト" sheetId="1" r:id="rId1"/>
     <sheet name="記入例" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="93">
   <si>
     <t>品名</t>
     <rPh sb="0" eb="1">
@@ -252,9 +252,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>1,500円以上の場合送料無料，1,500円未満の場合，一律送料250円</t>
-  </si>
-  <si>
     <t>商品代金の合計が11,000円を超えない場合のみ、配送料金として全国一律550円</t>
   </si>
   <si>
@@ -323,22 +320,6 @@
   </si>
   <si>
     <t>合計 ¥10,000（税抜）以上お買い上げいただくと、日本国内であれば送料無料（通常配送に限ります）</t>
-  </si>
-  <si>
-    <t>これは移動局用です。基地局としてのGPSは一昨年のものを利用します。</t>
-    <rPh sb="3" eb="7">
-      <t>イドウキョクヨウ</t>
-    </rPh>
-    <rPh sb="10" eb="13">
-      <t>キチキョク</t>
-    </rPh>
-    <rPh sb="21" eb="24">
-      <t>イッサクネン</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>リヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>秋月電子通商</t>
@@ -594,7 +575,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -828,6 +809,34 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF505050"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF505050"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF505050"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF505050"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -838,7 +847,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -987,6 +996,18 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1620,29 +1641,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:K25"/>
   <sheetViews>
-    <sheetView zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.97265625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.33203125" style="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="41.21875" style="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.109375" style="14" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.77734375" style="14" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.01953125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.375" style="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="41.2578125" style="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.11328125" style="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.82421875" style="14" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.21875" style="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.44140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.33203125" style="14" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="43.44140625" style="14" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="81.21875" style="14" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="3"/>
+    <col min="7" max="7" width="5.15625" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.49609375" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.375" style="14" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="43.42578125" style="14" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="81.17578125" style="14" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.97265625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A1" s="45" t="s">
         <v>12</v>
       </c>
@@ -1657,7 +1678,7 @@
       <c r="J1" s="46"/>
       <c r="K1" s="46"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>10</v>
       </c>
@@ -1692,79 +1713,75 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="F3" s="6">
-        <v>550</v>
+        <v>1080</v>
       </c>
       <c r="G3" s="9">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H3" s="18">
-        <f t="shared" ref="H3:H4" si="0">F3*G3</f>
-        <v>550</v>
+        <f t="shared" ref="H3:H8" si="0">F3*G3</f>
+        <v>6480</v>
       </c>
       <c r="I3" s="20" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="J3" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="K3" s="13" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="13.2" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+      <c r="K3" s="13"/>
+    </row>
+    <row r="4" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4" s="13" t="s">
-        <v>27</v>
+        <v>57</v>
+      </c>
+      <c r="C4" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="D4" s="40" t="s">
+        <v>55</v>
+      </c>
+      <c r="E4" s="30" t="s">
+        <v>54</v>
       </c>
       <c r="F4" s="6">
-        <v>30112</v>
+        <v>980</v>
       </c>
       <c r="G4" s="9">
         <v>1</v>
       </c>
       <c r="H4" s="18">
-        <f t="shared" si="0"/>
-        <v>30112</v>
+        <f>F4*G4</f>
+        <v>980</v>
       </c>
       <c r="I4" s="20" t="s">
-        <v>19</v>
+        <v>52</v>
       </c>
       <c r="J4" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="K4" s="13" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+      <c r="K4" s="13"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1775,147 +1792,158 @@
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
       <c r="F5" s="6">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="G5" s="9">
         <v>1</v>
       </c>
       <c r="H5" s="18">
-        <f>F5*G5</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>600</v>
       </c>
       <c r="I5" s="20" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="J5" s="13"/>
       <c r="K5" s="13"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
+      <c r="C6" s="13" t="s">
+        <v>15</v>
+      </c>
       <c r="D6" s="13"/>
       <c r="E6" s="13"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="20"/>
+      <c r="F6" s="6">
+        <v>300</v>
+      </c>
+      <c r="G6" s="9">
+        <v>1</v>
+      </c>
+      <c r="H6" s="18">
+        <f t="shared" si="0"/>
+        <v>300</v>
+      </c>
+      <c r="I6" s="20" t="s">
+        <v>13</v>
+      </c>
       <c r="J6" s="13"/>
       <c r="K6" s="13"/>
     </row>
-    <row r="7" spans="1:11" ht="13.2" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
+    </row>
+    <row r="8" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
         <v>5</v>
       </c>
-      <c r="B7" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="C7" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="F7" s="23">
-        <v>4150</v>
-      </c>
-      <c r="G7" s="24">
-        <v>2</v>
-      </c>
-      <c r="H7" s="18">
-        <f t="shared" ref="H7:H9" si="1">F7*G7</f>
-        <v>8300</v>
-      </c>
-      <c r="I7" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="J7" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="K7" s="13"/>
-    </row>
-    <row r="8" spans="1:11" ht="13.2" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
+      <c r="B8" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="C8" s="53" t="s">
+        <v>64</v>
+      </c>
+      <c r="D8" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="40" t="s">
+        <v>65</v>
+      </c>
+      <c r="F8" s="6">
+        <v>31892</v>
+      </c>
+      <c r="G8" s="9">
+        <v>1</v>
+      </c>
+      <c r="H8" s="6">
+        <f t="shared" si="0"/>
+        <v>31892</v>
+      </c>
+      <c r="I8" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="J8" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="K8" s="13"/>
+    </row>
+    <row r="9" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A9" s="33">
         <v>6</v>
       </c>
-      <c r="B8" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="C8" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="D8" s="22"/>
-      <c r="E8" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="F8" s="23">
-        <v>2439</v>
-      </c>
-      <c r="G8" s="24">
+      <c r="B9" s="51" t="s">
+        <v>60</v>
+      </c>
+      <c r="C9" s="50" t="s">
+        <v>59</v>
+      </c>
+      <c r="D9" s="52" t="s">
+        <v>63</v>
+      </c>
+      <c r="E9" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="F9" s="35">
+        <v>8800</v>
+      </c>
+      <c r="G9" s="36">
         <v>1</v>
       </c>
-      <c r="H8" s="18">
-        <f t="shared" si="1"/>
-        <v>2439</v>
-      </c>
-      <c r="I8" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="J8" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="K8" s="13"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
+      <c r="H9" s="37">
+        <f>F9*G9</f>
+        <v>8800</v>
+      </c>
+      <c r="I9" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="J9" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="K9" s="13"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
         <v>7</v>
       </c>
-      <c r="B9" s="22"/>
-      <c r="C9" s="22" t="s">
+      <c r="B10" s="13"/>
+      <c r="C10" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="22"/>
-      <c r="E9" s="22"/>
-      <c r="F9" s="23">
-        <v>0</v>
-      </c>
-      <c r="G9" s="24">
-        <v>1</v>
-      </c>
-      <c r="H9" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I9" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="J9" s="13"/>
-      <c r="K9" s="13" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
       <c r="D10" s="13"/>
       <c r="E10" s="13"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="20"/>
+      <c r="F10" s="6">
+        <v>0</v>
+      </c>
+      <c r="G10" s="9">
+        <v>1</v>
+      </c>
+      <c r="H10" s="18">
+        <f>F10*G10</f>
+        <v>0</v>
+      </c>
+      <c r="I10" s="20" t="s">
+        <v>19</v>
+      </c>
       <c r="J10" s="13"/>
-      <c r="K10" s="13"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
+      <c r="K10" s="13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
       <c r="B11" s="13"/>
       <c r="C11" s="13"/>
       <c r="D11" s="13"/>
@@ -1927,57 +1955,228 @@
       <c r="J11" s="13"/>
       <c r="K11" s="13"/>
     </row>
-    <row r="12" spans="1:11" ht="12.6" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="21"/>
-      <c r="B12" s="22"/>
-      <c r="C12" s="22"/>
-      <c r="D12" s="22"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="24"/>
-      <c r="H12" s="25"/>
-      <c r="I12" s="20"/>
-      <c r="J12" s="13"/>
+    <row r="12" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>8</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="F12" s="18">
+        <v>13640</v>
+      </c>
+      <c r="G12" s="9">
+        <v>1</v>
+      </c>
+      <c r="H12" s="18">
+        <f t="shared" ref="H12:H13" si="1">F12*G12</f>
+        <v>13640</v>
+      </c>
+      <c r="I12" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="J12" s="29" t="s">
+        <v>33</v>
+      </c>
       <c r="K12" s="13"/>
     </row>
-    <row r="13" spans="1:11" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="42" t="s">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>9</v>
+      </c>
+      <c r="B13" s="13"/>
+      <c r="C13" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="6">
+        <v>0</v>
+      </c>
+      <c r="G13" s="9">
+        <v>1</v>
+      </c>
+      <c r="H13" s="18">
+        <f>F13*G13</f>
+        <v>0</v>
+      </c>
+      <c r="I13" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="J13" s="13"/>
+      <c r="K13" s="13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="13"/>
+      <c r="K14" s="13"/>
+    </row>
+    <row r="15" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>10</v>
+      </c>
+      <c r="B15" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="C15" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="D15" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="E15" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="F15" s="23">
+        <v>1280</v>
+      </c>
+      <c r="G15" s="24">
+        <v>3</v>
+      </c>
+      <c r="H15" s="18">
+        <f>F15*G15</f>
+        <v>3840</v>
+      </c>
+      <c r="I15" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="J15" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="K15" s="13"/>
+    </row>
+    <row r="16" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
         <v>11</v>
       </c>
-      <c r="B13" s="43"/>
-      <c r="C13" s="43"/>
-      <c r="D13" s="43"/>
-      <c r="E13" s="43"/>
-      <c r="F13" s="43"/>
-      <c r="G13" s="44"/>
-      <c r="H13" s="28">
-        <f>SUM(H3:H12)</f>
-        <v>41401</v>
-      </c>
-      <c r="I13" s="16"/>
-      <c r="J13" s="16"/>
-      <c r="K13" s="16"/>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B17" s="27"/>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B18" s="27"/>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B19" s="27"/>
+      <c r="B16" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="C16" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="D16" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="E16" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="F16" s="23">
+        <v>1212</v>
+      </c>
+      <c r="G16" s="24">
+        <v>1</v>
+      </c>
+      <c r="H16" s="18">
+        <f>F16*G16</f>
+        <v>1212</v>
+      </c>
+      <c r="I16" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="J16" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="K16" s="13"/>
+    </row>
+    <row r="17" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>12</v>
+      </c>
+      <c r="B17" s="22"/>
+      <c r="C17" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="23">
+        <v>0</v>
+      </c>
+      <c r="G17" s="24">
+        <v>1</v>
+      </c>
+      <c r="H17" s="18">
+        <f>F17*G17</f>
+        <v>0</v>
+      </c>
+      <c r="I17" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="J17" s="15"/>
+      <c r="K17" s="13" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="21"/>
+      <c r="B18" s="22"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="24"/>
+      <c r="H18" s="25"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="13"/>
+    </row>
+    <row r="19" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="42" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19" s="43"/>
+      <c r="C19" s="43"/>
+      <c r="D19" s="43"/>
+      <c r="E19" s="43"/>
+      <c r="F19" s="43"/>
+      <c r="G19" s="44"/>
+      <c r="H19" s="28">
+        <f>SUM(H3:H18)</f>
+        <v>67744</v>
+      </c>
+      <c r="I19" s="16"/>
+      <c r="J19" s="16"/>
+      <c r="K19" s="16"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B23" s="27"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B24" s="27"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B25" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A13:G13"/>
+    <mergeCell ref="A19:G19"/>
     <mergeCell ref="A1:K1"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <hyperlinks>
-    <hyperlink ref="J4" r:id="rId1" xr:uid="{182B1EEB-0FF5-49BF-8931-FAB05A4E87B6}"/>
-    <hyperlink ref="J3" r:id="rId2" xr:uid="{2B8CF5E1-DF24-48D5-9CF0-B318BA508BF7}"/>
-    <hyperlink ref="J7" r:id="rId3" xr:uid="{04F2AEB1-56B2-47D8-AD6B-E982A62A0AE4}"/>
-    <hyperlink ref="J8" r:id="rId4" xr:uid="{4156465E-9CE1-4456-BDD2-0C9B7C2904FB}"/>
+    <hyperlink ref="J15" r:id="rId1" display="https://item.rakuten.co.jp/nejiya/4944825410025/?gclid=Cj0KCQjws-OEBhCkARIsAPhOkIb9yO1vSEk-d9gb4vSvDGGWenpPJv8C65WVbBsSQbu_deGXzuKIy4MaAi0sEALw_wcB&amp;scid=af_pc_etc&amp;sc2id=af_113_0_10001868&amp;icm_cid=12562029812&amp;icm_agid=119865627536&amp;gclid=Cj0KCQjws-OEBhCkARIsAPhOkIb9yO1vSEk-d9gb4vSvDGGWenpPJv8C65WVbBsSQbu_deGXzuKIy4MaAi0sEALw_wcB&amp;icm_acid=330-744-2500" xr:uid="{A14FEA4B-091D-CE44-B9A2-BCECF0956208}"/>
+    <hyperlink ref="J3" r:id="rId2" xr:uid="{4CB55C53-D0B9-B14F-8E48-84824BB61E8D}"/>
+    <hyperlink ref="J9" r:id="rId3" xr:uid="{1DFAC668-9E1B-D646-9F6C-D5509C3AC844}"/>
+    <hyperlink ref="J12" r:id="rId4" xr:uid="{4DCF5905-2C90-E441-8F30-B5E40CC54DA9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" r:id="rId5"/>
@@ -1989,29 +2188,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD651BF2-3CD5-4AC4-A105-AF8C7F0AE2DB}">
   <dimension ref="A1:K47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.97265625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.88671875" style="14" customWidth="1"/>
-    <col min="3" max="3" width="70.77734375" style="14" customWidth="1"/>
-    <col min="4" max="4" width="38.33203125" style="14" customWidth="1"/>
-    <col min="5" max="5" width="22.33203125" style="14" customWidth="1"/>
-    <col min="6" max="6" width="8" style="7" customWidth="1"/>
-    <col min="7" max="7" width="5.109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9" style="7" customWidth="1"/>
-    <col min="9" max="9" width="21" style="14" customWidth="1"/>
-    <col min="10" max="10" width="75.21875" style="14" customWidth="1"/>
-    <col min="11" max="11" width="90.44140625" style="14" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="3"/>
+    <col min="1" max="1" width="4.01953125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.8828125" style="14" customWidth="1"/>
+    <col min="3" max="3" width="70.7578125" style="14" customWidth="1"/>
+    <col min="4" max="4" width="38.37109375" style="14" customWidth="1"/>
+    <col min="5" max="5" width="22.27734375" style="14" customWidth="1"/>
+    <col min="6" max="6" width="8.04296875" style="7" customWidth="1"/>
+    <col min="7" max="7" width="5.15625" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.97265625" style="7" customWidth="1"/>
+    <col min="9" max="9" width="21.0390625" style="14" customWidth="1"/>
+    <col min="10" max="10" width="75.1953125" style="14" customWidth="1"/>
+    <col min="11" max="11" width="90.4609375" style="14" customWidth="1"/>
+    <col min="12" max="16384" width="8.97265625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A1" s="45" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B1" s="46"/>
       <c r="C1" s="46"/>
@@ -2024,7 +2223,7 @@
       <c r="J1" s="46"/>
       <c r="K1" s="46"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
       <c r="B2" s="11" t="s">
         <v>4</v>
@@ -2057,7 +2256,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -2091,7 +2290,7 @@
       </c>
       <c r="K3" s="13"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -2116,10 +2315,10 @@
       </c>
       <c r="J4" s="13"/>
       <c r="K4" s="13" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="13"/>
       <c r="C5" s="13"/>
@@ -2132,7 +2331,7 @@
       <c r="J5" s="13"/>
       <c r="K5" s="13"/>
     </row>
-    <row r="6" spans="1:11" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -2165,10 +2364,10 @@
         <v>34</v>
       </c>
       <c r="K6" s="13" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="13.2" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -2202,19 +2401,19 @@
       </c>
       <c r="K7" s="13"/>
     </row>
-    <row r="8" spans="1:11" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="C8" s="39" t="s">
         <v>64</v>
-      </c>
-      <c r="C8" s="39" t="s">
-        <v>66</v>
       </c>
       <c r="D8" s="40" t="s">
         <v>23</v>
       </c>
       <c r="E8" s="40" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F8" s="6">
         <v>31892</v>
@@ -2230,25 +2429,25 @@
         <v>19</v>
       </c>
       <c r="J8" s="15" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="K8" s="13"/>
     </row>
-    <row r="9" spans="1:11" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A9" s="33">
         <v>5</v>
       </c>
       <c r="B9" s="34" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C9" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="D9" s="39" t="s">
+        <v>63</v>
+      </c>
+      <c r="E9" s="30" t="s">
         <v>61</v>
-      </c>
-      <c r="D9" s="39" t="s">
-        <v>65</v>
-      </c>
-      <c r="E9" s="30" t="s">
-        <v>63</v>
       </c>
       <c r="F9" s="35">
         <v>8800</v>
@@ -2264,11 +2463,11 @@
         <v>19</v>
       </c>
       <c r="J9" s="15" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K9" s="13"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>6</v>
       </c>
@@ -2296,7 +2495,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="13"/>
       <c r="C11" s="13"/>
@@ -2309,7 +2508,7 @@
       <c r="J11" s="13"/>
       <c r="K11" s="13"/>
     </row>
-    <row r="12" spans="1:11" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>7</v>
       </c>
@@ -2343,21 +2542,21 @@
       </c>
       <c r="K12" s="13"/>
     </row>
-    <row r="13" spans="1:11" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>8</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C13" s="31" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D13" s="40" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E13" s="30" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F13" s="6">
         <v>980</v>
@@ -2370,14 +2569,14 @@
         <v>980</v>
       </c>
       <c r="I13" s="20" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J13" s="15" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K13" s="13"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>9</v>
       </c>
@@ -2403,7 +2602,7 @@
       <c r="J14" s="13"/>
       <c r="K14" s="13"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>10</v>
       </c>
@@ -2429,7 +2628,7 @@
       <c r="J15" s="13"/>
       <c r="K15" s="13"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="22"/>
       <c r="C16" s="22"/>
@@ -2442,19 +2641,19 @@
       <c r="J16" s="13"/>
       <c r="K16" s="13"/>
     </row>
-    <row r="17" spans="1:11" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>11</v>
       </c>
       <c r="B17" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" s="22" t="s">
         <v>43</v>
-      </c>
-      <c r="C17" s="22" t="s">
-        <v>44</v>
       </c>
       <c r="D17" s="22"/>
       <c r="E17" s="22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F17" s="23">
         <v>4150</v>
@@ -2467,26 +2666,26 @@
         <v>8300</v>
       </c>
       <c r="I17" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="J17" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="J17" s="15" t="s">
-        <v>47</v>
-      </c>
       <c r="K17" s="13"/>
     </row>
-    <row r="18" spans="1:11" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>12</v>
       </c>
       <c r="B18" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18" s="22" t="s">
         <v>48</v>
-      </c>
-      <c r="C18" s="22" t="s">
-        <v>49</v>
       </c>
       <c r="D18" s="22"/>
       <c r="E18" s="22" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F18" s="23">
         <v>2439</v>
@@ -2499,14 +2698,14 @@
         <v>2439</v>
       </c>
       <c r="I18" s="20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J18" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K18" s="13"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>13</v>
       </c>
@@ -2527,14 +2726,14 @@
         <v>0</v>
       </c>
       <c r="I19" s="20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J19" s="13"/>
       <c r="K19" s="13" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="22"/>
       <c r="C20" s="22"/>
@@ -2547,19 +2746,19 @@
       <c r="J20" s="13"/>
       <c r="K20" s="13"/>
     </row>
-    <row r="21" spans="1:11" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="22" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C21" s="22" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D21" s="22" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E21" s="22" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F21" s="23">
         <v>1280</v>
@@ -2572,24 +2771,24 @@
         <v>3840</v>
       </c>
       <c r="I21" s="20" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="J21" s="15" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="K21" s="13"/>
     </row>
-    <row r="22" spans="1:11" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="C22" s="41" t="s">
         <v>72</v>
-      </c>
-      <c r="C22" s="41" t="s">
-        <v>74</v>
       </c>
       <c r="D22" s="22"/>
       <c r="E22" s="22" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F22" s="23">
         <v>480</v>
@@ -2602,26 +2801,26 @@
         <v>480</v>
       </c>
       <c r="I22" s="20" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="J22" s="15" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K22" s="13"/>
     </row>
-    <row r="23" spans="1:11" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="C23" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="C23" s="22" t="s">
-        <v>73</v>
-      </c>
       <c r="D23" s="22" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E23" s="22" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F23" s="23">
         <v>1212</v>
@@ -2634,26 +2833,26 @@
         <v>1212</v>
       </c>
       <c r="I23" s="20" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="J23" s="15" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="K23" s="13"/>
     </row>
-    <row r="24" spans="1:11" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="22" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C24" s="41" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D24" s="22" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E24" s="22" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F24" s="23">
         <v>405</v>
@@ -2666,26 +2865,26 @@
         <v>405</v>
       </c>
       <c r="I24" s="20" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="J24" s="15" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K24" s="13"/>
     </row>
-    <row r="25" spans="1:11" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="C25" s="41" t="s">
+        <v>90</v>
+      </c>
+      <c r="D25" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="C25" s="41" t="s">
+      <c r="E25" s="22" t="s">
         <v>92</v>
-      </c>
-      <c r="D25" s="22" t="s">
-        <v>93</v>
-      </c>
-      <c r="E25" s="22" t="s">
-        <v>94</v>
       </c>
       <c r="F25" s="23">
         <v>1280</v>
@@ -2698,14 +2897,14 @@
         <v>1280</v>
       </c>
       <c r="I25" s="20" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="J25" s="15" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="K25" s="13"/>
     </row>
-    <row r="26" spans="1:11" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="22"/>
       <c r="C26" s="22" t="s">
@@ -2724,14 +2923,14 @@
         <v>0</v>
       </c>
       <c r="I26" s="20" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="J26" s="15"/>
       <c r="K26" s="13" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="22"/>
       <c r="C27" s="22"/>
@@ -2744,7 +2943,7 @@
       <c r="J27" s="15"/>
       <c r="K27" s="13"/>
     </row>
-    <row r="28" spans="1:11" ht="14.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="47" t="s">
         <v>11</v>
       </c>
@@ -2762,17 +2961,17 @@
       <c r="J28" s="16"/>
       <c r="K28" s="16"/>
     </row>
-    <row r="29" spans="1:11" ht="12.6" thickTop="1" x14ac:dyDescent="0.2"/>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11" ht="16.5" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B32" s="27"/>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B33" s="27"/>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B34" s="27"/>
     </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
       <c r="I47" s="10"/>
     </row>
   </sheetData>

--- a/docs/部品選定・発注/購入申請_試作/購入申請(20210608).xlsx
+++ b/docs/部品選定・発注/購入申請_試作/購入申請(20210608).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10510"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\プロジェクト演習4\docs\部品選定・発注\購入申請_試作\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://kcgacjp-my.sharepoint.com/personal/st081864_m02_kyoto-kcg_ac_jp/Documents/BACKUP/kcg/4年/プロ演４/git/docs/部品選定・発注/購入申請_試作/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="32" documentId="8_{5DB198B0-1A58-45D6-B358-7FE52C7FAC11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EFE3B0A6-C3EC-EB4F-9050-6D29E997199B}"/>
+  <xr:revisionPtr revIDLastSave="34" documentId="8_{5DB198B0-1A58-45D6-B358-7FE52C7FAC11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{054684AE-ACA6-4B67-A625-A8B51B316850}"/>
   <bookViews>
-    <workbookView xWindow="-23160" yWindow="-16320" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="12103" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="購入リスト" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="94">
   <si>
     <t>品名</t>
     <rPh sb="0" eb="1">
@@ -483,6 +483,10 @@
   </si>
   <si>
     <t>8608594</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://raspberry-pi.ksyic.com/main/index/pdp.id/557/pdp.open/557</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -974,6 +978,18 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -996,18 +1012,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1644,39 +1648,39 @@
   <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.97265625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.6" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.01953125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.375" style="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="41.2578125" style="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.11328125" style="14" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.82421875" style="14" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.21875" style="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.15625" style="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.49609375" style="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.375" style="14" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="43.42578125" style="14" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="81.17578125" style="14" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="8.97265625" style="3"/>
+    <col min="1" max="1" width="4" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.3828125" style="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="41.23046875" style="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.07421875" style="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.84375" style="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.23046875" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.15234375" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.4609375" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.3828125" style="14" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="43.3828125" style="14" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="81.15234375" style="14" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="45" t="s">
+    <row r="1" spans="1:11" ht="13.3" x14ac:dyDescent="0.25">
+      <c r="A1" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="46"/>
-      <c r="K1" s="46"/>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
@@ -1713,7 +1717,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="13.3" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1747,7 +1751,7 @@
       </c>
       <c r="K3" s="13"/>
     </row>
-    <row r="4" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="13.3" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1833,7 +1837,7 @@
       <c r="J6" s="13"/>
       <c r="K6" s="13"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="13"/>
       <c r="C7" s="13"/>
@@ -1846,14 +1850,14 @@
       <c r="J7" s="13"/>
       <c r="K7" s="13"/>
     </row>
-    <row r="8" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="13.3" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>5</v>
       </c>
       <c r="B8" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="C8" s="53" t="s">
+      <c r="C8" s="45" t="s">
         <v>64</v>
       </c>
       <c r="D8" s="40" t="s">
@@ -1880,17 +1884,17 @@
       </c>
       <c r="K8" s="13"/>
     </row>
-    <row r="9" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="13.3" x14ac:dyDescent="0.25">
       <c r="A9" s="33">
         <v>6</v>
       </c>
-      <c r="B9" s="51" t="s">
+      <c r="B9" s="43" t="s">
         <v>60</v>
       </c>
-      <c r="C9" s="50" t="s">
+      <c r="C9" s="42" t="s">
         <v>59</v>
       </c>
-      <c r="D9" s="52" t="s">
+      <c r="D9" s="44" t="s">
         <v>63</v>
       </c>
       <c r="E9" s="30" t="s">
@@ -1955,7 +1959,7 @@
       <c r="J11" s="13"/>
       <c r="K11" s="13"/>
     </row>
-    <row r="12" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="13.3" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>8</v>
       </c>
@@ -1978,14 +1982,14 @@
         <v>1</v>
       </c>
       <c r="H12" s="18">
-        <f t="shared" ref="H12:H13" si="1">F12*G12</f>
+        <f t="shared" ref="H12" si="1">F12*G12</f>
         <v>13640</v>
       </c>
       <c r="I12" s="20" t="s">
         <v>38</v>
       </c>
       <c r="J12" s="29" t="s">
-        <v>33</v>
+        <v>93</v>
       </c>
       <c r="K12" s="13"/>
     </row>
@@ -2017,7 +2021,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="13"/>
       <c r="C14" s="13"/>
@@ -2030,7 +2034,7 @@
       <c r="J14" s="13"/>
       <c r="K14" s="13"/>
     </row>
-    <row r="15" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" ht="13.3" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>10</v>
       </c>
@@ -2064,7 +2068,7 @@
       </c>
       <c r="K15" s="13"/>
     </row>
-    <row r="16" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" ht="13.3" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>11</v>
       </c>
@@ -2098,7 +2102,7 @@
       </c>
       <c r="K16" s="13"/>
     </row>
-    <row r="17" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" ht="13.3" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>12</v>
       </c>
@@ -2139,16 +2143,16 @@
       <c r="J18" s="13"/>
       <c r="K18" s="13"/>
     </row>
-    <row r="19" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="42" t="s">
+    <row r="19" spans="1:11" ht="13.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="B19" s="43"/>
-      <c r="C19" s="43"/>
-      <c r="D19" s="43"/>
-      <c r="E19" s="43"/>
-      <c r="F19" s="43"/>
-      <c r="G19" s="44"/>
+      <c r="B19" s="47"/>
+      <c r="C19" s="47"/>
+      <c r="D19" s="47"/>
+      <c r="E19" s="47"/>
+      <c r="F19" s="47"/>
+      <c r="G19" s="48"/>
       <c r="H19" s="28">
         <f>SUM(H3:H18)</f>
         <v>67744</v>
@@ -2157,13 +2161,13 @@
       <c r="J19" s="16"/>
       <c r="K19" s="16"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B23" s="27"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B24" s="27"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B25" s="27"/>
     </row>
   </sheetData>
@@ -2176,7 +2180,7 @@
     <hyperlink ref="J15" r:id="rId1" display="https://item.rakuten.co.jp/nejiya/4944825410025/?gclid=Cj0KCQjws-OEBhCkARIsAPhOkIb9yO1vSEk-d9gb4vSvDGGWenpPJv8C65WVbBsSQbu_deGXzuKIy4MaAi0sEALw_wcB&amp;scid=af_pc_etc&amp;sc2id=af_113_0_10001868&amp;icm_cid=12562029812&amp;icm_agid=119865627536&amp;gclid=Cj0KCQjws-OEBhCkARIsAPhOkIb9yO1vSEk-d9gb4vSvDGGWenpPJv8C65WVbBsSQbu_deGXzuKIy4MaAi0sEALw_wcB&amp;icm_acid=330-744-2500" xr:uid="{A14FEA4B-091D-CE44-B9A2-BCECF0956208}"/>
     <hyperlink ref="J3" r:id="rId2" xr:uid="{4CB55C53-D0B9-B14F-8E48-84824BB61E8D}"/>
     <hyperlink ref="J9" r:id="rId3" xr:uid="{1DFAC668-9E1B-D646-9F6C-D5509C3AC844}"/>
-    <hyperlink ref="J12" r:id="rId4" xr:uid="{4DCF5905-2C90-E441-8F30-B5E40CC54DA9}"/>
+    <hyperlink ref="J12" r:id="rId4" xr:uid="{730145CF-4F6C-489D-B5DB-0C06BDEC9C7B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" r:id="rId5"/>
@@ -2192,36 +2196,36 @@
       <selection activeCell="A3" sqref="A3:XFD4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.97265625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.6" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.01953125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.8828125" style="14" customWidth="1"/>
-    <col min="3" max="3" width="70.7578125" style="14" customWidth="1"/>
-    <col min="4" max="4" width="38.37109375" style="14" customWidth="1"/>
-    <col min="5" max="5" width="22.27734375" style="14" customWidth="1"/>
-    <col min="6" max="6" width="8.04296875" style="7" customWidth="1"/>
-    <col min="7" max="7" width="5.15625" style="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.97265625" style="7" customWidth="1"/>
-    <col min="9" max="9" width="21.0390625" style="14" customWidth="1"/>
-    <col min="10" max="10" width="75.1953125" style="14" customWidth="1"/>
+    <col min="1" max="1" width="4" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.84375" style="14" customWidth="1"/>
+    <col min="3" max="3" width="70.765625" style="14" customWidth="1"/>
+    <col min="4" max="4" width="38.3828125" style="14" customWidth="1"/>
+    <col min="5" max="5" width="22.3046875" style="14" customWidth="1"/>
+    <col min="6" max="6" width="8.07421875" style="7" customWidth="1"/>
+    <col min="7" max="7" width="5.15234375" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9" style="7" customWidth="1"/>
+    <col min="9" max="9" width="21" style="14" customWidth="1"/>
+    <col min="10" max="10" width="75.15234375" style="14" customWidth="1"/>
     <col min="11" max="11" width="90.4609375" style="14" customWidth="1"/>
-    <col min="12" max="16384" width="8.97265625" style="3"/>
+    <col min="12" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="45" t="s">
+    <row r="1" spans="1:11" ht="13.3" x14ac:dyDescent="0.25">
+      <c r="A1" s="49" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="46"/>
-      <c r="K1" s="46"/>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
@@ -2256,7 +2260,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="13.3" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -2318,7 +2322,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="13"/>
       <c r="C5" s="13"/>
@@ -2331,7 +2335,7 @@
       <c r="J5" s="13"/>
       <c r="K5" s="13"/>
     </row>
-    <row r="6" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="13.3" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -2367,7 +2371,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="13.3" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -2401,7 +2405,7 @@
       </c>
       <c r="K7" s="13"/>
     </row>
-    <row r="8" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="13.3" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="13" t="s">
         <v>62</v>
@@ -2433,7 +2437,7 @@
       </c>
       <c r="K8" s="13"/>
     </row>
-    <row r="9" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="13.3" x14ac:dyDescent="0.25">
       <c r="A9" s="33">
         <v>5</v>
       </c>
@@ -2495,7 +2499,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="13"/>
       <c r="C11" s="13"/>
@@ -2508,7 +2512,7 @@
       <c r="J11" s="13"/>
       <c r="K11" s="13"/>
     </row>
-    <row r="12" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="13.3" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>7</v>
       </c>
@@ -2542,7 +2546,7 @@
       </c>
       <c r="K12" s="13"/>
     </row>
-    <row r="13" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="13.3" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>8</v>
       </c>
@@ -2628,7 +2632,7 @@
       <c r="J15" s="13"/>
       <c r="K15" s="13"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="22"/>
       <c r="C16" s="22"/>
@@ -2641,7 +2645,7 @@
       <c r="J16" s="13"/>
       <c r="K16" s="13"/>
     </row>
-    <row r="17" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" ht="13.3" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>11</v>
       </c>
@@ -2673,7 +2677,7 @@
       </c>
       <c r="K17" s="13"/>
     </row>
-    <row r="18" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" ht="13.3" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>12</v>
       </c>
@@ -2733,7 +2737,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="22"/>
       <c r="C20" s="22"/>
@@ -2746,7 +2750,7 @@
       <c r="J20" s="13"/>
       <c r="K20" s="13"/>
     </row>
-    <row r="21" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" ht="13.3" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="22" t="s">
         <v>75</v>
@@ -2767,7 +2771,7 @@
         <v>3</v>
       </c>
       <c r="H21" s="18">
-        <f>F21*G21</f>
+        <f t="shared" ref="H21:H26" si="3">F21*G21</f>
         <v>3840</v>
       </c>
       <c r="I21" s="20" t="s">
@@ -2778,7 +2782,7 @@
       </c>
       <c r="K21" s="13"/>
     </row>
-    <row r="22" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" ht="13.3" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="22" t="s">
         <v>70</v>
@@ -2797,7 +2801,7 @@
         <v>1</v>
       </c>
       <c r="H22" s="18">
-        <f>F22*G22</f>
+        <f t="shared" si="3"/>
         <v>480</v>
       </c>
       <c r="I22" s="20" t="s">
@@ -2808,7 +2812,7 @@
       </c>
       <c r="K22" s="13"/>
     </row>
-    <row r="23" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" ht="13.3" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="22" t="s">
         <v>69</v>
@@ -2829,7 +2833,7 @@
         <v>1</v>
       </c>
       <c r="H23" s="18">
-        <f>F23*G23</f>
+        <f t="shared" si="3"/>
         <v>1212</v>
       </c>
       <c r="I23" s="20" t="s">
@@ -2840,7 +2844,7 @@
       </c>
       <c r="K23" s="13"/>
     </row>
-    <row r="24" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" ht="13.3" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="22" t="s">
         <v>87</v>
@@ -2861,7 +2865,7 @@
         <v>1</v>
       </c>
       <c r="H24" s="18">
-        <f>F24*G24</f>
+        <f t="shared" si="3"/>
         <v>405</v>
       </c>
       <c r="I24" s="20" t="s">
@@ -2872,7 +2876,7 @@
       </c>
       <c r="K24" s="13"/>
     </row>
-    <row r="25" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" ht="13.3" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="22" t="s">
         <v>89</v>
@@ -2893,7 +2897,7 @@
         <v>1</v>
       </c>
       <c r="H25" s="18">
-        <f>F25*G25</f>
+        <f t="shared" si="3"/>
         <v>1280</v>
       </c>
       <c r="I25" s="20" t="s">
@@ -2904,7 +2908,7 @@
       </c>
       <c r="K25" s="13"/>
     </row>
-    <row r="26" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" ht="13.3" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="22"/>
       <c r="C26" s="22" t="s">
@@ -2919,7 +2923,7 @@
         <v>1</v>
       </c>
       <c r="H26" s="18">
-        <f>F26*G26</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I26" s="20" t="s">
@@ -2930,7 +2934,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" ht="13.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="22"/>
       <c r="C27" s="22"/>
@@ -2943,16 +2947,16 @@
       <c r="J27" s="15"/>
       <c r="K27" s="13"/>
     </row>
-    <row r="28" spans="1:11" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="47" t="s">
+    <row r="28" spans="1:11" ht="14.15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="B28" s="48"/>
-      <c r="C28" s="48"/>
-      <c r="D28" s="48"/>
-      <c r="E28" s="48"/>
-      <c r="F28" s="48"/>
-      <c r="G28" s="49"/>
+      <c r="B28" s="52"/>
+      <c r="C28" s="52"/>
+      <c r="D28" s="52"/>
+      <c r="E28" s="52"/>
+      <c r="F28" s="52"/>
+      <c r="G28" s="53"/>
       <c r="H28" s="26">
         <f>SUM(H3:H26)</f>
         <v>111310</v>
@@ -2961,7 +2965,7 @@
       <c r="J28" s="16"/>
       <c r="K28" s="16"/>
     </row>
-    <row r="29" spans="1:11" ht="16.5" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="1:11" ht="12" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B32" s="27"/>
     </row>
